--- a/pred_ohlcv/54_23/2019-10-10 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-10 ETC ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -829,10 +829,10 @@
         <v>5990</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -852,10 +852,10 @@
         <v>5985</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -921,10 +921,10 @@
         <v>5965</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>5955</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -967,10 +967,10 @@
         <v>5950</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -990,10 +990,10 @@
         <v>5950</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>5950</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1036,10 @@
         <v>5935</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1059,10 +1059,10 @@
         <v>5920</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>5930</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1358,10 +1358,10 @@
         <v>5930</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1381,10 +1381,10 @@
         <v>5925</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4049,7 +4049,7 @@
         <v>5870</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -6119,7 +6119,7 @@
         <v>5820</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         <v>5850</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -6234,7 +6234,7 @@
         <v>5820</v>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>5810</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>5820</v>
       </c>
       <c r="F263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>5800</v>
       </c>
       <c r="F264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6651,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>